--- a/CaseAndFatalityDemographicsData/2021-12-03.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-12-03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\11.18.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9294C00-440C-4213-98DE-A428849E5326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE2644F-2C5C-47F6-9B01-E34B1849CD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-22905" yWindow="-7155" windowWidth="21510" windowHeight="14535" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -630,16 +630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -650,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -662,7 +660,7 @@
         <v>3.6303993439278323E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -674,7 +672,7 @@
         <v>2.0212223344567903E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -686,7 +684,7 @@
         <v>5.3705907649841483E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -698,7 +696,7 @@
         <v>0.20392243146746142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -710,7 +708,7 @@
         <v>0.21491364050045506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -722,7 +720,7 @@
         <v>0.18597045675024251</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,7 +732,7 @@
         <v>0.1542469671663883</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -746,7 +744,7 @@
         <v>5.5966156277190489E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -758,7 +756,7 @@
         <v>3.8454229965296183E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -770,7 +768,7 @@
         <v>2.4362679894788426E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -782,7 +780,7 @@
         <v>1.6551820700277029E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -794,7 +792,7 @@
         <v>2.7663042934722819E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -806,7 +804,7 @@
         <v>4.0004400484053244E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -829,13 +827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB138E10-A78A-4DC8-A42A-79AF36BFE66D}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
+    <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -862,7 +858,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -878,7 +874,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -894,7 +890,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -920,16 +916,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958BDC2E-149A-4610-AE3E-2ED1092370C8}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -945,7 +939,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -961,7 +955,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -977,7 +971,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -993,7 +987,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1003,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1019,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1035,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1059,81 +1053,81 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="18"/>
       <c r="C18" s="22"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="18"/>
       <c r="C19" s="22"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E20" s="18"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1149,16 +1143,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1178,142 +1170,142 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.9422324574789823E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.9209132570456355E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.9133486862184733E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3.0185779753574268E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.0682278516134403E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.0839439093328943E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>9.0175078382952745E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.0831755440300768E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>2081</v>
+        <v>2130</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.8869898171526871E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.9225323125051453E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>5083</v>
+        <v>5164</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>7.0516911295469054E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7.0854257567026152E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>9670</v>
+        <v>9824</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.13415277045586971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.13479322740868802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>7372</v>
+        <v>7481</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>0.10227241197525042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.10264537197113142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>8675</v>
+        <v>8775</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12034904691878694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12040009878982465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>9212</v>
+        <v>9290</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.12779889570211703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12746631541395681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>8700</v>
+        <v>8784</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12069587414333675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12052358607063472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>20527</v>
+        <v>20657</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.28477289753336477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.28343075107708349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1325,12 +1317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <v>72082</v>
+        <v>72882</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1346,13 +1338,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1363,31 +1353,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>30176</v>
+        <v>30520</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.42265673146955013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.41875909003594852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>41905</v>
+        <v>42361</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58693764356546585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.58122718915507254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1396,15 +1386,15 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.4006386912432068E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.3720808978897396E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>71396</v>
+        <v>72882</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1420,16 +1410,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1440,64 +1428,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.849282761299631E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>1.8454488076616999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>7630</v>
+        <v>7725</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10585166893260453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.10599324936198239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>31482</v>
+        <v>31810</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.43675258733109512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.43645893361872617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.9376820842928883E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5.9411102878625726E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>31164</v>
+        <v>31524</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.43234094503482146</v>
+        <v>0.43253478225076153</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1509,7 +1497,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1506,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>6.242890041896729E-4</v>
+        <v>6.1743640405038285E-4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -1530,13 +1518,13 @@
       <c r="N7" s="25"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>72082</v>
+        <v>72882</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
@@ -1552,7 +1540,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
